--- a/Stilling Basin Design/Delta Manual Worked Example/Straight Drop Glacis/Data_Summary_Inlet_Polder_15.xlsx
+++ b/Stilling Basin Design/Delta Manual Worked Example/Straight Drop Glacis/Data_Summary_Inlet_Polder_15.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Designs_All\Stilling Basin Design\Delamual Workout Example\Straight Drop Glacis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Designs_All\Stilling Basin Design\Delta Manual Worked Example\Straight Drop Glacis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11BF4549-3B54-4EDA-8A5B-74F03BC55A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Data_Summary" sheetId="1" r:id="rId1"/>
@@ -31,7 +30,7 @@
     <sheet name="Sheet8" sheetId="14" r:id="rId16"/>
     <sheet name="Sheet9" sheetId="15" r:id="rId17"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -50,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="105">
   <si>
     <t>Parameter</t>
   </si>
@@ -358,19 +357,19 @@
     <t>Needed for Determingin Mximum Head</t>
   </si>
   <si>
-    <t>Lowest TWL</t>
-  </si>
-  <si>
-    <t>Highest TWL</t>
-  </si>
-  <si>
     <t>Polder_15_Inlet</t>
+  </si>
+  <si>
+    <t>Lowest TWL for Appron of Basin</t>
+  </si>
+  <si>
+    <t>Highest TWL for Length of Basin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -729,21 +728,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5546875" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -754,7 +753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -765,7 +764,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -776,7 +775,7 @@
         <v>2.13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -787,7 +786,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -804,21 +803,21 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
-    <col min="4" max="4" width="21.88671875" style="9" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="36.85546875" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -831,8 +830,11 @@
       <c r="D1" s="8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G1" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>85</v>
       </c>
@@ -840,7 +842,7 @@
         <v>100</v>
       </c>
       <c r="C2" s="1">
-        <v>8.1999999999999993</v>
+        <v>11.5</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>101</v>
@@ -852,8 +854,11 @@
         <f>E2*3.28</f>
         <v>12.956</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2">
+        <v>3.50609756097561</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>87</v>
       </c>
@@ -861,10 +866,10 @@
         <v>100</v>
       </c>
       <c r="C3" s="1">
-        <v>3.9359999999999999</v>
+        <v>1.968</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E3" s="1">
         <v>1.2</v>
@@ -873,8 +878,11 @@
         <f t="shared" ref="F3:F5" si="0">E3*3.28</f>
         <v>3.9359999999999995</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>88</v>
       </c>
@@ -885,7 +893,7 @@
         <v>5.9039999999999999</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E4" s="1">
         <v>1.8</v>
@@ -894,8 +902,11 @@
         <f t="shared" si="0"/>
         <v>5.9039999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>89</v>
       </c>
@@ -911,6 +922,9 @@
       <c r="F5">
         <f t="shared" si="0"/>
         <v>3.9359999999999995</v>
+      </c>
+      <c r="G5">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>
@@ -920,21 +934,21 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -948,7 +962,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>85</v>
       </c>
@@ -959,7 +973,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>87</v>
       </c>
@@ -970,7 +984,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>88</v>
       </c>
@@ -981,7 +995,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>89</v>
       </c>
@@ -998,16 +1012,16 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>91</v>
       </c>
@@ -1015,7 +1029,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>90</v>
       </c>
@@ -1024,7 +1038,7 @@
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>92</v>
       </c>
@@ -1032,7 +1046,7 @@
         <v>-7.73</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>93</v>
       </c>
@@ -1041,7 +1055,7 @@
         <v>-2.8987500000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>94</v>
       </c>
@@ -1049,7 +1063,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>95</v>
       </c>
@@ -1058,7 +1072,7 @@
         <v>-0.75</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>96</v>
       </c>
@@ -1067,7 +1081,7 @@
         <v>3.57605223471516</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>97</v>
       </c>
@@ -1076,7 +1090,7 @@
         <v>2.120064132202506</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -1085,7 +1099,7 @@
         <v>4.6145351988205565</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -1094,7 +1108,7 @@
         <v>1.1517492442843427</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>98</v>
       </c>
@@ -1103,7 +1117,7 @@
         <v>4.0065450198648662</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>99</v>
       </c>
@@ -1118,88 +1132,88 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>-0.64</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1.47</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A1+A2</f>
         <v>0.83</v>
@@ -1211,23 +1225,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" customWidth="1"/>
-    <col min="10" max="10" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -1262,7 +1276,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>77</v>
       </c>
@@ -1294,7 +1308,7 @@
         <v>-1.8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>78</v>
       </c>
@@ -1326,7 +1340,7 @@
         <v>-1.32</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>79</v>
       </c>
@@ -1358,7 +1372,7 @@
         <v>-0.96</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>80</v>
       </c>
@@ -1390,7 +1404,7 @@
         <v>-0.54</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>81</v>
       </c>
@@ -1422,7 +1436,7 @@
         <v>-0.42</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>82</v>
       </c>
@@ -1433,25 +1447,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" customWidth="1"/>
-    <col min="10" max="10" width="18.33203125" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -1486,7 +1500,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>49</v>
       </c>
@@ -1523,7 +1537,7 @@
         <v>-1.32</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>50</v>
       </c>
@@ -1560,7 +1574,7 @@
         <v>-0.96</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>51</v>
       </c>
@@ -1597,7 +1611,7 @@
         <v>-0.54</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>52</v>
       </c>
@@ -1634,7 +1648,7 @@
         <v>-0.42000000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>53</v>
       </c>
@@ -1671,14 +1685,14 @@
         <v>-0.18999999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G8" s="1"/>
       <c r="K8" s="1">
         <f>K6+0.96</f>
         <v>0.77</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F9" s="1" t="s">
         <v>67</v>
       </c>
@@ -1695,7 +1709,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>70</v>
       </c>
@@ -1719,7 +1733,7 @@
       </c>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>70</v>
       </c>
@@ -1743,7 +1757,7 @@
       </c>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>70</v>
       </c>
@@ -1767,7 +1781,7 @@
       </c>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E13" s="2" t="s">
         <v>76</v>
       </c>
@@ -1797,7 +1811,7 @@
       </c>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E14" s="4" t="s">
         <v>54</v>
       </c>
@@ -1827,7 +1841,7 @@
       </c>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E15" s="4" t="s">
         <v>56</v>
       </c>
@@ -1855,7 +1869,7 @@
       </c>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E16" s="4" t="s">
         <v>55</v>
       </c>
@@ -1880,7 +1894,7 @@
       <c r="K16" s="5"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E17" s="4" t="s">
         <v>73</v>
       </c>
@@ -1910,7 +1924,7 @@
       </c>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E18" s="4" t="s">
         <v>74</v>
       </c>
@@ -1940,7 +1954,7 @@
       </c>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E19" s="4" t="s">
         <v>59</v>
       </c>
@@ -1968,7 +1982,7 @@
         <v>1.3776418657142873</v>
       </c>
     </row>
-    <row r="20" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E20" s="6" t="s">
         <v>60</v>
       </c>
@@ -1997,7 +2011,7 @@
         <v>3.1776418657142873</v>
       </c>
     </row>
-    <row r="21" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E21" s="4" t="s">
         <v>61</v>
       </c>
@@ -2026,7 +2040,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E22" s="4" t="s">
         <v>62</v>
       </c>
@@ -2055,7 +2069,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E23" s="4" t="s">
         <v>63</v>
       </c>
@@ -2084,7 +2098,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E24" s="4" t="s">
         <v>64</v>
       </c>
@@ -2113,7 +2127,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E25" s="6" t="s">
         <v>65</v>
       </c>
@@ -2142,7 +2156,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E26" s="4" t="s">
         <v>66</v>
       </c>
@@ -2171,7 +2185,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E30" s="2" t="s">
         <v>75</v>
       </c>
@@ -2192,7 +2206,7 @@
       </c>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E31" s="2" t="s">
         <v>58</v>
       </c>
@@ -2213,7 +2227,7 @@
       </c>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E32" s="2" t="s">
         <v>13</v>
       </c>
@@ -2234,7 +2248,7 @@
       </c>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E33" s="2" t="s">
         <v>76</v>
       </c>
@@ -2263,7 +2277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E34" s="4" t="s">
         <v>54</v>
       </c>
@@ -2292,7 +2306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E35" s="4" t="s">
         <v>56</v>
       </c>
@@ -2319,7 +2333,7 @@
         <v>-1.8</v>
       </c>
     </row>
-    <row r="36" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E36" s="4" t="s">
         <v>55</v>
       </c>
@@ -2343,7 +2357,7 @@
       </c>
       <c r="K36" s="5"/>
     </row>
-    <row r="37" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E37" s="4" t="s">
         <v>73</v>
       </c>
@@ -2372,7 +2386,7 @@
         <v>-1.8</v>
       </c>
     </row>
-    <row r="38" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E38" s="4" t="s">
         <v>74</v>
       </c>
@@ -2401,7 +2415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E39" s="4" t="s">
         <v>59</v>
       </c>
@@ -2429,7 +2443,7 @@
         <v>1.3776418657142873</v>
       </c>
     </row>
-    <row r="40" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E40" s="6" t="s">
         <v>60</v>
       </c>
@@ -2458,7 +2472,7 @@
         <v>3.1776418657142873</v>
       </c>
     </row>
-    <row r="41" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E41" s="4" t="s">
         <v>61</v>
       </c>
@@ -2487,7 +2501,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E42" s="4" t="s">
         <v>62</v>
       </c>
@@ -2516,7 +2530,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E43" s="4" t="s">
         <v>63</v>
       </c>
@@ -2545,7 +2559,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E44" s="4" t="s">
         <v>64</v>
       </c>
@@ -2574,7 +2588,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E45" s="6" t="s">
         <v>65</v>
       </c>
@@ -2603,7 +2617,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E46" s="4" t="s">
         <v>66</v>
       </c>
@@ -2638,74 +2652,74 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>8</v>
       </c>
@@ -2716,19 +2730,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC26"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -2739,7 +2753,7 @@
         <v>2.5000000000000001E-4</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -2828,7 +2842,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -2917,7 +2931,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -3006,7 +3020,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -3095,7 +3109,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -3107,10 +3121,10 @@
         <v>1.0764578588009799</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -3227,7 +3241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -3344,7 +3358,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
@@ -3461,7 +3475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
@@ -3578,7 +3592,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <f>B10^(2/3)</f>
         <v>0.63847197536597544</v>
@@ -3692,7 +3706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <f>B8*B12</f>
         <v>2.4299887644497118</v>
@@ -3806,7 +3820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <f>B8^(5/3)*(B9^(-2/3))</f>
         <v>2.4299887644497118</v>
@@ -3920,7 +3934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -3949,7 +3963,7 @@
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
@@ -4066,7 +4080,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>36</v>
       </c>
@@ -4183,7 +4197,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>37</v>
       </c>
@@ -4300,7 +4314,7 @@
         <v>6.324555320336759</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1">
         <f>B17/B8</f>
@@ -4415,7 +4429,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -4445,7 +4459,7 @@
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -4474,7 +4488,7 @@
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -4503,7 +4517,7 @@
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>34</v>
       </c>
@@ -4620,7 +4634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>35</v>
       </c>
@@ -4737,7 +4751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
@@ -4854,7 +4868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
@@ -4977,20 +4991,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5001,7 +5015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -5009,7 +5023,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -5018,7 +5032,7 @@
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -5029,7 +5043,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -5038,7 +5052,7 @@
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -5049,7 +5063,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -5064,26 +5078,26 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -5092,20 +5106,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -5128,7 +5142,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
@@ -5151,7 +5165,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -5174,7 +5188,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
@@ -5197,7 +5211,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
@@ -5220,7 +5234,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>42</v>
       </c>
@@ -5243,7 +5257,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>43</v>
       </c>
@@ -5266,7 +5280,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>44</v>
       </c>
@@ -5289,7 +5303,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>46</v>
       </c>
@@ -5312,7 +5326,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>47</v>
       </c>
@@ -5335,7 +5349,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>48</v>
       </c>

--- a/Stilling Basin Design/Delta Manual Worked Example/Straight Drop Glacis/Data_Summary_Inlet_Polder_15.xlsx
+++ b/Stilling Basin Design/Delta Manual Worked Example/Straight Drop Glacis/Data_Summary_Inlet_Polder_15.xlsx
@@ -806,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
